--- a/documentation/ProposalContentStudentNameRev03.xlsx
+++ b/documentation/ProposalContentStudentNameRev03.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E49C37-5435-7249-8A8A-830108F825BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AD223F-138F-904F-B1BA-5094BECB340A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6500" yWindow="700" windowWidth="16800" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="16800" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataEntry" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Submission Date</t>
   </si>
@@ -73,22 +73,40 @@
     <t>https://github.com/lucasfini/GreenHouseProj.git</t>
   </si>
   <si>
-    <t>Smart Door Lock</t>
-  </si>
-  <si>
     <t>Lucas Finiello, Andrew Liauba, Luca Rojas</t>
   </si>
   <si>
-    <t>lucas Finiello, Andrew Liauba, Luca Rojas</t>
-  </si>
-  <si>
     <t>Touch Sensor/ Keypad, Proximity sensor, Camera</t>
   </si>
   <si>
     <t>Keypad id's, codes, recorded video</t>
   </si>
   <si>
-    <t xml:space="preserve">Notify when door is opened. Connect to camera, unlock/lock door through phone, unlock/lock door through keypad. </t>
+    <t xml:space="preserve">I2C PCB 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lucas Finiello, Andrew Liauba, Luca Rojas
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**To Be Announced**. Still being searched.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notify when door is opened. Connect to camera, unlock/lock door through phone, unlock/lock door through keypad. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As our lives gets filled with large responsibilities, and numerous tasks we sometimes might forget about the small ones. This small thing could be doing the laundry, remembering a birthday or even locking your front door when leaving the house. With the device our team is building you will be able to unlock/lock your door with any android device. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart Door Lock </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Work in Progress**
+</t>
   </si>
 </sst>
 </file>
@@ -479,7 +497,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -502,7 +520,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -510,7 +528,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -526,7 +544,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -534,7 +552,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
@@ -542,50 +560,71 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -670,14 +709,14 @@
         <v>Solution description</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <f>DataEntry!B1</f>
         <v>43718</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>DataEntry!B2</f>
-        <v>Smart Door Lock</v>
+        <v xml:space="preserve">Smart Door Lock </v>
       </c>
       <c r="C2" s="2" t="str">
         <f>DataEntry!B3</f>
@@ -697,39 +736,47 @@
       </c>
       <c r="G2" s="2" t="str">
         <f>DataEntry!B7</f>
-        <v xml:space="preserve">Notify when door is opened. Connect to camera, unlock/lock door through phone, unlock/lock door through keypad. </v>
-      </c>
-      <c r="H2" s="2">
+        <v xml:space="preserve">Notify when door is opened. Connect to camera, unlock/lock door through phone, unlock/lock door through keypad. 
+</v>
+      </c>
+      <c r="H2" s="2" t="str">
         <f>DataEntry!B8</f>
-        <v>0</v>
+        <v xml:space="preserve">**To Be Announced**. Still being searched.
+</v>
       </c>
       <c r="I2" s="2" t="str">
         <f>DataEntry!B9</f>
-        <v>lucas Finiello, Andrew Liauba, Luca Rojas</v>
-      </c>
-      <c r="J2" s="2">
+        <v xml:space="preserve">lucas Finiello, Andrew Liauba, Luca Rojas
+</v>
+      </c>
+      <c r="J2" s="2" t="str">
         <f>DataEntry!B10</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
+        <v xml:space="preserve">As our lives gets filled with large responsibilities, and numerous tasks we sometimes might forget about the small ones. This small thing could be doing the laundry, remembering a birthday or even locking your front door when leaving the house. With the device our team is building you will be able to unlock/lock your door with any android device. 
+</v>
+      </c>
+      <c r="K2" s="2" t="str">
         <f>DataEntry!B11</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
+        <v xml:space="preserve">**Work in Progress**
+</v>
+      </c>
+      <c r="L2" s="2" t="str">
         <f>DataEntry!B12</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
+        <v xml:space="preserve">**Work in Progress**
+</v>
+      </c>
+      <c r="M2" s="2" t="str">
         <f>DataEntry!B13</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
+        <v xml:space="preserve">**Work in Progress**
+</v>
+      </c>
+      <c r="N2" s="2" t="str">
         <f>DataEntry!B14</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <f>DataEntry!B15</f>
-        <v>0</v>
+        <v xml:space="preserve">I2C PCB 
+</v>
+      </c>
+      <c r="O2" s="2" t="e">
+        <f>DataEntry!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
